--- a/biology/Botanique/Guatteria/Guatteria.xlsx
+++ b/biology/Botanique/Guatteria/Guatteria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guatteria est un genre de plantes à fleurs de la famille des Annonaceae. Il s'agit du genre le plus répandu de cette famille en Amérique du Sud et du genre dominant dans la forêt climacique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guatteria est un genre de plantes à fleurs de la famille des Annonaceae. Il s'agit du genre le plus répandu de cette famille en Amérique du Sud et du genre dominant dans la forêt climacique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">sélection d'espèces :
 Guatteria alutacea Diels
@@ -529,7 +543,7 @@
 Guatteria ouregou (Aubl.) Dunal
 Guatteria punctata (Aubl.) R. A. Howard
 Le genre comporte entre autres les espèces suivantes :
-Selon Catalogue of Life                                   (8 août 2018)[3] :
+Selon Catalogue of Life                                   (8 août 2018) :
 Guatteria aberrans Erkens &amp; Maas
 Guatteria acrantha Erkens &amp; Maas
 Guatteria acutissima R. E. Fr.
@@ -776,7 +790,7 @@
 Guatteria williamsii R. E. Fr.
 Guatteria wokomungensis Scharf &amp; Maas
 Guatteria zamorae Erkens &amp; Maas
-Selon The Plant List            (8 août 2018)[4] :
+Selon The Plant List            (8 août 2018) :
 Guatteria aberrans Erkens &amp; Maas
 Guatteria acrantha Erkens &amp; Maas
 Guatteria acutiflora Mart.
@@ -1031,7 +1045,7 @@
 Guatteria wokomungensis Scharf &amp; Maas
 Guatteria xylopioides R.E.Fr.
 Guatteria zamorae Erkens &amp; Maas
-Selon Tropicos                                           (8 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Guatteria aberrans Erkens &amp; Maas
 Guatteria acrantha Erkens &amp; Maas
 Guatteria acutiflora Mart.
